--- a/stock_predictor_ai/data/company_sentiment_ready/FFIV_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/FFIV_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6558"/>
+  <dimension ref="A1:B6612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52905,6 +52905,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6559">
+      <c r="A6559" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B6559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6560">
+      <c r="A6560" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B6560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6561">
+      <c r="A6561" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B6561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6562">
+      <c r="A6562" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B6562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6563">
+      <c r="A6563" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B6563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6564">
+      <c r="A6564" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B6564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6565">
+      <c r="A6565" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B6565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6566">
+      <c r="A6566" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B6566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6567">
+      <c r="A6567" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B6567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6568">
+      <c r="A6568" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B6568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6569">
+      <c r="A6569" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B6569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6570">
+      <c r="A6570" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B6570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6571">
+      <c r="A6571" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B6571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6572">
+      <c r="A6572" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B6572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6573">
+      <c r="A6573" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B6573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6574">
+      <c r="A6574" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B6574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6575">
+      <c r="A6575" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B6575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6576">
+      <c r="A6576" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B6576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6577">
+      <c r="A6577" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B6577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6578">
+      <c r="A6578" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B6578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6579">
+      <c r="A6579" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B6579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6580">
+      <c r="A6580" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B6580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6581">
+      <c r="A6581" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B6581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6582">
+      <c r="A6582" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B6582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6583">
+      <c r="A6583" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B6583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6584">
+      <c r="A6584" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B6584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6585">
+      <c r="A6585" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B6585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6586">
+      <c r="A6586" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B6586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6587">
+      <c r="A6587" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B6587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6588">
+      <c r="A6588" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B6588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6589">
+      <c r="A6589" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B6589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6590">
+      <c r="A6590" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B6590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6591">
+      <c r="A6591" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B6591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6592">
+      <c r="A6592" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B6592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6593">
+      <c r="A6593" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B6593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6594">
+      <c r="A6594" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B6594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6595">
+      <c r="A6595" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B6595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6596">
+      <c r="A6596" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B6596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6597">
+      <c r="A6597" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B6597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6598">
+      <c r="A6598" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B6598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6599">
+      <c r="A6599" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B6599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6600">
+      <c r="A6600" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B6600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6601">
+      <c r="A6601" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B6601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6602">
+      <c r="A6602" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B6602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6603">
+      <c r="A6603" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B6603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6604">
+      <c r="A6604" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B6604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6605">
+      <c r="A6605" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B6605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6606">
+      <c r="A6606" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B6606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6607">
+      <c r="A6607" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B6607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6608">
+      <c r="A6608" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B6608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6609">
+      <c r="A6609" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B6609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6610">
+      <c r="A6610" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B6610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6611">
+      <c r="A6611" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B6611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6612">
+      <c r="A6612" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B6612" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
